--- a/biology/Zoologie/Érione_pattue/Érione_pattue.xlsx
+++ b/biology/Zoologie/Érione_pattue/Érione_pattue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rione_pattue</t>
+          <t>Érione_pattue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriocnemis vestita
 L'Érione pattue (Eriocnemis vestita, anciennement  Eriocnemis vestitus) est une espèce de colibri présente en Colombie, Équateur, Pérou et Venezuela.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rione_pattue</t>
+          <t>Érione_pattue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rione_pattue</t>
+          <t>Érione_pattue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de montagne, la végétation de broussailles et les prairies de haute altitude. On la trouve également sur les sites d'anciennes forêts lourdement dégradées et dans les pâturages.
 </t>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89rione_pattue</t>
+          <t>Érione_pattue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, quatre sous-espèces ont été décrites :
 Eriocnemis vestita arcosi  Schuchmann, Weller &amp; Heynen, 2001
